--- a/期末專案/rawdata/慈濟大學.xlsx
+++ b/期末專案/rawdata/慈濟大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,21 @@
           <t>國文(1.00)、英文(2.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +556,21 @@
           <t>英文(1.00)、數A(1.50)、化學(2.00)</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +588,21 @@
           <t>國文(2.00)、英文(1.50)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +620,21 @@
           <t>國文(2.00)、英文(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +652,21 @@
           <t>國文(2.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +684,21 @@
           <t>國文(1.50)、英文(1.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +716,21 @@
           <t>國文(2.00)、英文(2.00)、公民(1.50)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +748,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +790,21 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +822,21 @@
           <t>英文(1.00)、化學(1.50)、生物(1.50)</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +854,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +896,21 @@
           <t>國文(1.00)、英文(2.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +928,21 @@
           <t>國文(2.00)、社會(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +960,21 @@
           <t>國文(1.50)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +992,21 @@
           <t>國文(1.00)、英文(2.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1024,21 @@
           <t>英文(2.00)、數甲(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -724,6 +1054,21 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>英文(1.50)、數B(2.00)、物理(1.50)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.50</t>
         </is>
       </c>
     </row>
